--- a/docs/Drop_Kick_Picks_Schedule.xlsx
+++ b/docs/Drop_Kick_Picks_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodsk\Documents\Bootcamp-Code\Final-Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87B5A609-2252-4C97-AFE0-1B2A586C5356}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F7D518-5978-4F22-BE9F-D2D1679DDEEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="3810" xr2:uid="{2D89B8F1-A96B-4155-947B-6626DC303B56}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Drop-Kick Picks Schedule</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Rndy</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>Complete</t>
   </si>
 </sst>
 </file>
@@ -208,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -220,10 +226,17 @@
     <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,20 +551,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D587A33C-E59C-40B5-BF1C-503A7A761C81}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="57.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +575,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -584,278 +598,284 @@
         <v>43400</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="H3" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="H4" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="7"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="7"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="7"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="7"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A9:F9"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A23:F23"/>
   </mergeCells>

--- a/docs/Drop_Kick_Picks_Schedule.xlsx
+++ b/docs/Drop_Kick_Picks_Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodsk\Documents\Bootcamp-Code\Final-Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F7D518-5978-4F22-BE9F-D2D1679DDEEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B167C0-5BDE-4EFF-90F1-CB83DEC661A6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="3810" xr2:uid="{2D89B8F1-A96B-4155-947B-6626DC303B56}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Drop-Kick Picks Schedule</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>Both</t>
-  </si>
-  <si>
-    <t>Rndy</t>
   </si>
   <si>
     <t>Scheduled</t>
@@ -228,8 +225,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,6 +232,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,8 +551,8 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,16 +596,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="H3" s="10" t="s">
-        <v>31</v>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="H3" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -618,12 +615,12 @@
       <c r="B4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="H4" s="11" t="s">
-        <v>32</v>
+      <c r="H4" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -633,7 +630,7 @@
       <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -645,7 +642,7 @@
       <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -657,7 +654,7 @@
       <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -669,20 +666,20 @@
       <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -692,7 +689,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
@@ -704,7 +701,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
@@ -716,79 +713,79 @@
         <v>27</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="A14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -833,14 +830,14 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -876,7 +873,7 @@
   <mergeCells count="4">
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A14:F14"/>
     <mergeCell ref="A23:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
